--- a/doc/运营商衍生字段.xlsx
+++ b/doc/运营商衍生字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/project/models/yunyingshang/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083F707E-7365-8444-9C85-630A0B2DC1E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606EBB5-B8E2-6D4B-B786-F95E67BDA8B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21120" windowHeight="16300" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通话记录衍生" sheetId="4" r:id="rId1"/>
@@ -567,15 +567,9 @@
     <t>一线城市通话次数 占比</t>
   </si>
   <si>
-    <t>contacter_normal_city__cnt</t>
-  </si>
-  <si>
     <t>非一线城市联系人个数</t>
   </si>
   <si>
-    <t>contacter_normal_city__rate</t>
-  </si>
-  <si>
     <t>非一线城市联系人占比</t>
   </si>
   <si>
@@ -918,18 +912,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>call_normal_city_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_normal_city_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_normal_city_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>call_0_10_cnt</t>
   </si>
   <si>
@@ -1185,10 +1167,6 @@
   </si>
   <si>
     <t>180s以上</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>calls_180_up_cnt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2952,83 +2930,83 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>friends_city</t>
+  </si>
+  <si>
+    <t>last_contact_time</t>
+  </si>
+  <si>
+    <t>living_city_birthplace</t>
+  </si>
+  <si>
+    <t>calls_180_up_cnt</t>
+  </si>
+  <si>
+    <t>contacter_normal_city_cnt</t>
+  </si>
+  <si>
+    <t>contacter_normal_city_rate</t>
+  </si>
+  <si>
+    <t>call_normal_city_time</t>
+  </si>
+  <si>
+    <t>call_normal_city_cnt</t>
+  </si>
+  <si>
+    <t>call_normal_city_rate</t>
+  </si>
+  <si>
     <t>call_fee_0_2_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_0_2_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_0_2_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_2_5_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_2_5_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_2_5_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_5_10_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_5_10_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_5_10_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_10_50_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_10_50_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_10_50_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_50_up_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>call_fee_50_up_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contacter_call_fee_50_up_cnt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_contact_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>friends_city</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>living_city_birthplace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3268,12 +3246,6 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -3312,10 +3284,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF80807F"/>
-      <name val="Menlo"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -4048,22 +4044,22 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -4077,7 +4073,7 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4095,16 +4091,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="79" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="79" applyFont="1">
@@ -4120,14 +4116,37 @@
     <xf numFmtId="0" fontId="27" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4136,71 +4155,59 @@
     <xf numFmtId="0" fontId="30" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="79" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -4564,7 +4571,7 @@
   <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4595,28 +4602,28 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="12" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>29</v>
@@ -4624,9 +4631,9 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60"/>
-      <c r="B4" s="45" t="s">
-        <v>813</v>
+      <c r="A4" s="72"/>
+      <c r="B4" s="12" t="s">
+        <v>793</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>16</v>
@@ -4635,7 +4642,7 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4643,15 +4650,15 @@
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="44" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
@@ -4662,44 +4669,44 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="60"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>390</v>
+        <v>790</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>384</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="60"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="D9" s="66"/>
+        <v>791</v>
+      </c>
+      <c r="D9" s="57"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="60"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
@@ -4710,7 +4717,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="60"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -4721,9 +4728,9 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="61"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="12" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>28</v>
@@ -4739,7 +4746,7 @@
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="50" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4749,14 +4756,14 @@
         <v>31</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E14" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="63"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="12" t="s">
         <v>32</v>
       </c>
@@ -4764,12 +4771,12 @@
         <v>33</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="50"/>
+        <v>328</v>
+      </c>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="63"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
@@ -4777,12 +4784,12 @@
         <v>35</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E16" s="50"/>
+        <v>342</v>
+      </c>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="63"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
@@ -4790,12 +4797,12 @@
         <v>37</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="50"/>
+        <v>329</v>
+      </c>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="63"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
@@ -4803,12 +4810,12 @@
         <v>39</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E18" s="50"/>
+        <v>330</v>
+      </c>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="63"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
@@ -4816,12 +4823,12 @@
         <v>41</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="50"/>
+        <v>331</v>
+      </c>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="63"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
@@ -4829,12 +4836,12 @@
         <v>43</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E20" s="50"/>
+        <v>333</v>
+      </c>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="63"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
@@ -4842,55 +4849,55 @@
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E21" s="50"/>
+        <v>332</v>
+      </c>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="63"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="63"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="63"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="64"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1">
       <c r="A26" s="2"/>
@@ -4900,562 +4907,562 @@
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="17" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="E27" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17">
-      <c r="A28" s="51"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="17">
-      <c r="A29" s="51"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="17">
-      <c r="A30" s="51"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="17">
-      <c r="A31" s="51"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="17">
-      <c r="A32" s="51"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" ht="17">
+      <c r="A33" s="67"/>
+      <c r="B33" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="1:5" ht="17">
-      <c r="A33" s="51"/>
-      <c r="B33" s="13" t="s">
-        <v>314</v>
-      </c>
       <c r="C33" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="16" customHeight="1">
-      <c r="A34" s="51"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="17">
-      <c r="A35" s="51"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" ht="17">
-      <c r="A36" s="51"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" ht="17">
-      <c r="A37" s="51"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:5" ht="17">
-      <c r="A38" s="51"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5" ht="17">
-      <c r="A39" s="51"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="17">
+      <c r="A40" s="67"/>
+      <c r="B40" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5" ht="17">
-      <c r="A40" s="51"/>
-      <c r="B40" s="13" t="s">
-        <v>315</v>
-      </c>
       <c r="C40" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="51"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="E41" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="51"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="51"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="51"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="51"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="51"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="67"/>
+      <c r="B47" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="51"/>
-      <c r="B47" s="13" t="s">
-        <v>316</v>
-      </c>
       <c r="C47" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
     </row>
     <row r="48" spans="1:5" ht="16" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D48" s="49" t="s">
-        <v>365</v>
-      </c>
-      <c r="E48" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="51"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="51"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="51"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C51" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" ht="17">
+      <c r="A52" s="67"/>
+      <c r="B52" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" ht="17">
+      <c r="A53" s="67"/>
+      <c r="B53" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="1:5" ht="17">
+      <c r="A54" s="67"/>
+      <c r="B54" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="67"/>
+      <c r="B55" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="67"/>
+      <c r="B56" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-    </row>
-    <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="51"/>
-      <c r="B52" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="C56" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="67"/>
+      <c r="B57" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-    </row>
-    <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="51"/>
-      <c r="B53" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-    </row>
-    <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="51"/>
-      <c r="B54" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="50"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="51"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="51"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="51"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
+        <v>348</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="46"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="51"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="51"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>367</v>
-      </c>
-      <c r="E62" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="51"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="51"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="46"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="51"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="51"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="51"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="67"/>
+      <c r="B68" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="51"/>
-      <c r="B68" s="13" t="s">
-        <v>318</v>
-      </c>
       <c r="C68" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="51"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="51"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
+        <v>345</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="51"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="51"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="51"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
+        <v>347</v>
+      </c>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="51"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="68"/>
+      <c r="B75" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C75" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="52"/>
-      <c r="B75" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1">
       <c r="A76" s="2"/>
@@ -5465,7 +5472,7 @@
       <c r="E76" s="29"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="70" t="s">
         <v>148</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -5474,505 +5481,505 @@
       <c r="C77" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="E77" s="50" t="s">
+      <c r="D77" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="E77" s="46" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="51"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="51"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="51"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="51"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="50"/>
+      <c r="E81" s="46"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="51"/>
+      <c r="A82" s="67"/>
       <c r="B82" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="51"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="50"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="51"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="51"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="50"/>
+      <c r="E85" s="46"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="51"/>
+      <c r="A86" s="67"/>
       <c r="B86" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="46"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="51"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="50"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="46"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="51"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="46"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="51"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="50"/>
+      <c r="E89" s="46"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="51"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="51"/>
+      <c r="A91" s="67"/>
       <c r="B91" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="50"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="46"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="51"/>
+      <c r="A92" s="67"/>
       <c r="B92" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="51"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="50"/>
+      <c r="E93" s="46"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="51"/>
+      <c r="A94" s="67"/>
       <c r="B94" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="51"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="50"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="51"/>
+      <c r="A96" s="67"/>
       <c r="B96" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="46"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="51"/>
+      <c r="A97" s="67"/>
       <c r="B97" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="50"/>
+      <c r="E97" s="46"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="51"/>
+      <c r="A98" s="67"/>
       <c r="B98" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D98" s="45"/>
+      <c r="E98" s="46"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="51"/>
+      <c r="A99" s="67"/>
       <c r="B99" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="50"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="46"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="51"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="13" t="s">
         <v>107</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D100" s="45"/>
+      <c r="E100" s="46"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="51"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="56" t="s">
+      <c r="D101" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="50"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="51"/>
+      <c r="A102" s="67"/>
       <c r="B102" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D102" s="47"/>
+      <c r="E102" s="46"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="51"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="56"/>
-      <c r="E103" s="50"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="46"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="51"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D104" s="56"/>
-      <c r="E104" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="46"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="51"/>
+      <c r="A105" s="67"/>
       <c r="B105" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="50"/>
+      <c r="E105" s="46"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="51"/>
+      <c r="A106" s="67"/>
       <c r="B106" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D106" s="45"/>
+      <c r="E106" s="46"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="51"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D107" s="49"/>
-      <c r="E107" s="50"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="46"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="51"/>
+      <c r="A108" s="67"/>
       <c r="B108" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D108" s="45"/>
+      <c r="E108" s="46"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="51"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D109" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="E109" s="50"/>
+      <c r="D109" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="51"/>
+      <c r="A110" s="67"/>
       <c r="B110" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D110" s="49"/>
-      <c r="E110" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D110" s="45"/>
+      <c r="E110" s="46"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="51"/>
+      <c r="A111" s="67"/>
       <c r="B111" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="49"/>
-      <c r="E111" s="50"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="46"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="51"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="51"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D113" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="E113" s="50"/>
+      <c r="D113" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="E113" s="46"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="51"/>
+      <c r="A114" s="67"/>
       <c r="B114" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D114" s="49"/>
-      <c r="E114" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D114" s="45"/>
+      <c r="E114" s="46"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="51"/>
+      <c r="A115" s="67"/>
       <c r="B115" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D115" s="49"/>
-      <c r="E115" s="50"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="46"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="51"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="D116" s="49"/>
-      <c r="E116" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D116" s="45"/>
+      <c r="E116" s="46"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="51"/>
+      <c r="A117" s="67"/>
       <c r="B117" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D117" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="E117" s="50"/>
+      <c r="D117" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="E117" s="46"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="51"/>
+      <c r="A118" s="67"/>
       <c r="B118" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D118" s="56"/>
-      <c r="E118" s="50"/>
+        <v>364</v>
+      </c>
+      <c r="D118" s="47"/>
+      <c r="E118" s="46"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="51"/>
+      <c r="A119" s="67"/>
       <c r="B119" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="56"/>
-      <c r="E119" s="50"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="46"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="52"/>
+      <c r="A120" s="68"/>
       <c r="B120" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D120" s="67"/>
-      <c r="E120" s="50"/>
+        <v>365</v>
+      </c>
+      <c r="D120" s="48"/>
+      <c r="E120" s="46"/>
     </row>
     <row r="121" spans="1:5" s="7" customFormat="1">
       <c r="A121" s="2"/>
@@ -5982,7 +5989,7 @@
       <c r="E121" s="29"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B122" s="12" t="s">
@@ -5991,422 +5998,422 @@
       <c r="C122" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D122" s="49">
+      <c r="D122" s="45">
         <v>110</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="46" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="51"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D123" s="49"/>
-      <c r="E123" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="51"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="50"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="46"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="51"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="46"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="51"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="49">
+      <c r="D126" s="45">
         <v>120</v>
       </c>
-      <c r="E126" s="50"/>
+      <c r="E126" s="46"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="51"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D127" s="49"/>
-      <c r="E127" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="46"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="51"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D128" s="49"/>
-      <c r="E128" s="50"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="46"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="51"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D129" s="49"/>
-      <c r="E129" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D129" s="45"/>
+      <c r="E129" s="46"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="51"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D130" s="55">
+      <c r="D130" s="62">
         <v>119</v>
       </c>
-      <c r="E130" s="50"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="51"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D131" s="56"/>
-      <c r="E131" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D131" s="47"/>
+      <c r="E131" s="46"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="51"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D132" s="56"/>
-      <c r="E132" s="50"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="46"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="51"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D133" s="56"/>
-      <c r="E133" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D133" s="47"/>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="51"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D134" s="49" t="s">
-        <v>376</v>
-      </c>
-      <c r="E134" s="50"/>
+      <c r="D134" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="E134" s="46"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="51"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D135" s="45"/>
+      <c r="E135" s="46"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="51"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="49"/>
-      <c r="E136" s="50"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="46"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="51"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D137" s="49"/>
-      <c r="E137" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="51"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="13" t="s">
         <v>140</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D138" s="49"/>
-      <c r="E138" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D138" s="45"/>
+      <c r="E138" s="46"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="51"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="E139" s="50"/>
+      <c r="D139" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="E139" s="46"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="51"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D140" s="49"/>
-      <c r="E140" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D140" s="45"/>
+      <c r="E140" s="46"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="51"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="50"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="46"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="51"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D142" s="49"/>
-      <c r="E142" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D142" s="45"/>
+      <c r="E142" s="46"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="51"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="13" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D143" s="49"/>
-      <c r="E143" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D143" s="45"/>
+      <c r="E143" s="46"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="51"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D144" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="E144" s="50"/>
+      <c r="D144" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="E144" s="46"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="51"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D145" s="45"/>
+      <c r="E145" s="46"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="51"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D146" s="49"/>
-      <c r="E146" s="50"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="46"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="51"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D147" s="49"/>
-      <c r="E147" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D147" s="45"/>
+      <c r="E147" s="46"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="51"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D148" s="49"/>
-      <c r="E148" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D148" s="45"/>
+      <c r="E148" s="46"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="51"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D149" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="E149" s="50"/>
+      <c r="D149" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E149" s="46"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="51"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D150" s="45"/>
+      <c r="E150" s="46"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="51"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D151" s="49"/>
-      <c r="E151" s="50"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="46"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="51"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D152" s="45"/>
+      <c r="E152" s="46"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="51"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D153" s="49"/>
-      <c r="E153" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D153" s="45"/>
+      <c r="E153" s="46"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="51"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="E154" s="50"/>
+      <c r="D154" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="E154" s="46"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="51"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D155" s="49"/>
-      <c r="E155" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D155" s="45"/>
+      <c r="E155" s="46"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="51"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D156" s="49"/>
-      <c r="E156" s="50"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="46"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="51"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D157" s="49"/>
-      <c r="E157" s="50"/>
+        <v>368</v>
+      </c>
+      <c r="D157" s="45"/>
+      <c r="E157" s="46"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="52"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D158" s="49"/>
-      <c r="E158" s="50"/>
+        <v>369</v>
+      </c>
+      <c r="D158" s="45"/>
+      <c r="E158" s="46"/>
     </row>
     <row r="159" spans="1:5" s="9" customFormat="1">
       <c r="A159" s="8"/>
@@ -6416,8 +6423,8 @@
       <c r="E159" s="40"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="46" t="s">
-        <v>209</v>
+      <c r="A160" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>150</v>
@@ -6425,352 +6432,352 @@
       <c r="C160" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D160" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="E160" s="53" t="s">
+      <c r="D160" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="E160" s="61" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="51"/>
+      <c r="A161" s="67"/>
       <c r="B161" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D161" s="49"/>
-      <c r="E161" s="53"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="61"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="51"/>
+      <c r="A162" s="67"/>
       <c r="B162" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D162" s="49"/>
-      <c r="E162" s="53"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="61"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="51"/>
+      <c r="A163" s="67"/>
       <c r="B163" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D163" s="49"/>
-      <c r="E163" s="53"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="61"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="51"/>
+      <c r="A164" s="67"/>
       <c r="B164" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D164" s="49"/>
-      <c r="E164" s="53"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="61"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="51"/>
+      <c r="A165" s="67"/>
       <c r="B165" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D165" s="49"/>
-      <c r="E165" s="53"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="61"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="51"/>
+      <c r="A166" s="67"/>
       <c r="B166" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="E166" s="53"/>
+      <c r="D166" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="E166" s="61"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="51"/>
+      <c r="A167" s="67"/>
       <c r="B167" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C167" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D167" s="49"/>
-      <c r="E167" s="53"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="61"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="51"/>
+      <c r="A168" s="67"/>
       <c r="B168" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D168" s="49"/>
-      <c r="E168" s="53"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="61"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="51"/>
+      <c r="A169" s="67"/>
       <c r="B169" s="12" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D169" s="49"/>
-      <c r="E169" s="53"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="61"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="51"/>
+      <c r="A170" s="67"/>
       <c r="B170" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="49"/>
-      <c r="E170" s="53"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="61"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="51"/>
+      <c r="A171" s="67"/>
       <c r="B171" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="D171" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="E171" s="61"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="67"/>
+      <c r="B172" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D171" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="E171" s="53"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="51"/>
-      <c r="B172" s="12" t="s">
+      <c r="D172" s="45"/>
+      <c r="E172" s="61"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="67"/>
+      <c r="B173" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="D173" s="45"/>
+      <c r="E173" s="61"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="67"/>
+      <c r="B174" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D172" s="49"/>
-      <c r="E172" s="53"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="51"/>
-      <c r="B173" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C173" s="12" t="s">
+      <c r="D174" s="45"/>
+      <c r="E174" s="61"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="67"/>
+      <c r="B175" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C175" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="49"/>
-      <c r="E173" s="53"/>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="51"/>
-      <c r="B174" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C174" s="12" t="s">
+      <c r="D175" s="45"/>
+      <c r="E175" s="61"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="67"/>
+      <c r="B176" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D174" s="49"/>
-      <c r="E174" s="53"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="51"/>
-      <c r="B175" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C175" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D175" s="49"/>
-      <c r="E175" s="53"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="51"/>
-      <c r="B176" s="12" t="s">
+      <c r="D176" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="E176" s="61"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="67"/>
+      <c r="B177" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C177" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D176" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="E176" s="53"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="51"/>
-      <c r="B177" s="12" t="s">
+      <c r="D177" s="60"/>
+      <c r="E177" s="61"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="67"/>
+      <c r="B178" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C178" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="58"/>
-      <c r="E177" s="53"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="51"/>
-      <c r="B178" s="12" t="s">
+      <c r="D178" s="60"/>
+      <c r="E178" s="61"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="67"/>
+      <c r="B179" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C179" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D178" s="58"/>
-      <c r="E178" s="53"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="51"/>
-      <c r="B179" s="12" t="s">
+      <c r="D179" s="60"/>
+      <c r="E179" s="61"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="67"/>
+      <c r="B180" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D179" s="58"/>
-      <c r="E179" s="53"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="51"/>
-      <c r="B180" s="13" t="s">
+      <c r="D180" s="60"/>
+      <c r="E180" s="61"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="67"/>
+      <c r="B181" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D180" s="58"/>
-      <c r="E180" s="53"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="51"/>
-      <c r="B181" s="12" t="s">
+      <c r="D181" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="E181" s="61"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="67"/>
+      <c r="B182" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C182" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D181" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="E181" s="53"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="51"/>
-      <c r="B182" s="12" t="s">
+      <c r="D182" s="45"/>
+      <c r="E182" s="61"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="67"/>
+      <c r="B183" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C183" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="49"/>
-      <c r="E182" s="53"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="51"/>
-      <c r="B183" s="12" t="s">
+      <c r="D183" s="45"/>
+      <c r="E183" s="61"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="67"/>
+      <c r="B184" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C184" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D183" s="49"/>
-      <c r="E183" s="53"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="51"/>
-      <c r="B184" s="12" t="s">
+      <c r="D184" s="45"/>
+      <c r="E184" s="61"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="67"/>
+      <c r="B185" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C185" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D184" s="49"/>
-      <c r="E184" s="53"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="51"/>
-      <c r="B185" s="13" t="s">
+      <c r="D185" s="45"/>
+      <c r="E185" s="61"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="67"/>
+      <c r="B186" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D185" s="49"/>
-      <c r="E185" s="53"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="51"/>
-      <c r="B186" s="12" t="s">
+      <c r="D186" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="E186" s="61"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="67"/>
+      <c r="B187" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D186" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="E186" s="53"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="51"/>
-      <c r="B187" s="12" t="s">
+      <c r="D187" s="45"/>
+      <c r="E187" s="61"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="67"/>
+      <c r="B188" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D187" s="49"/>
-      <c r="E187" s="53"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="51"/>
-      <c r="B188" s="12" t="s">
+      <c r="D188" s="45"/>
+      <c r="E188" s="61"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="67"/>
+      <c r="B189" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D188" s="49"/>
-      <c r="E188" s="53"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="51"/>
-      <c r="B189" s="12" t="s">
+      <c r="D189" s="45"/>
+      <c r="E189" s="61"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="68"/>
+      <c r="B190" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C190" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D189" s="49"/>
-      <c r="E189" s="53"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="52"/>
-      <c r="B190" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D190" s="49"/>
-      <c r="E190" s="53"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="61"/>
     </row>
     <row r="191" spans="1:5" s="7" customFormat="1">
       <c r="A191" s="2"/>
@@ -6780,137 +6787,137 @@
       <c r="E191" s="29"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="54" t="s">
-        <v>232</v>
+      <c r="A192" s="69" t="s">
+        <v>230</v>
       </c>
       <c r="B192" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D192" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="E192" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="69"/>
+      <c r="B193" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C193" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D192" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="E192" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="54"/>
-      <c r="B193" s="12" t="s">
+      <c r="D193" s="49"/>
+      <c r="E193" s="46"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="69"/>
+      <c r="B194" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C194" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D193" s="57"/>
-      <c r="E193" s="50"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="54"/>
-      <c r="B194" s="12" t="s">
+      <c r="D194" s="49"/>
+      <c r="E194" s="46"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="69"/>
+      <c r="B195" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C195" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D194" s="57"/>
-      <c r="E194" s="50"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="54"/>
-      <c r="B195" s="13" t="s">
+      <c r="D195" s="49"/>
+      <c r="E195" s="46"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="69"/>
+      <c r="B196" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C196" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D195" s="57"/>
-      <c r="E195" s="50"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="54"/>
-      <c r="B196" s="12" t="s">
+      <c r="D196" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="E196" s="46"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="69"/>
+      <c r="B197" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C197" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D196" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="E196" s="50"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="54"/>
-      <c r="B197" s="12" t="s">
+      <c r="D197" s="49"/>
+      <c r="E197" s="46"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="69"/>
+      <c r="B198" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C198" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D197" s="57"/>
-      <c r="E197" s="50"/>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="54"/>
-      <c r="B198" s="12" t="s">
+      <c r="D198" s="49"/>
+      <c r="E198" s="46"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="69"/>
+      <c r="B199" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C199" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D198" s="57"/>
-      <c r="E198" s="50"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="54"/>
-      <c r="B199" s="13" t="s">
+      <c r="D199" s="49"/>
+      <c r="E199" s="46"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="69"/>
+      <c r="B200" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D199" s="57"/>
-      <c r="E199" s="50"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="54"/>
-      <c r="B200" s="12" t="s">
+      <c r="D200" s="17"/>
+      <c r="E200" s="46"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="69"/>
+      <c r="B201" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C201" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D200" s="17"/>
-      <c r="E200" s="50"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="54"/>
-      <c r="B201" s="12" t="s">
+      <c r="D201" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E201" s="46"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="69"/>
+      <c r="B202" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C202" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D201" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="E201" s="50"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="54"/>
-      <c r="B202" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="D202" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="E202" s="50"/>
+        <v>385</v>
+      </c>
+      <c r="E202" s="46"/>
     </row>
     <row r="203" spans="1:5" s="7" customFormat="1">
       <c r="A203" s="2"/>
@@ -6920,269 +6927,269 @@
       <c r="E203" s="29"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="46" t="s">
-        <v>398</v>
+      <c r="A204" s="66" t="s">
+        <v>392</v>
       </c>
       <c r="B204" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D204" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E204" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="67"/>
+      <c r="B205" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C205" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D204" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="E204" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="47"/>
-      <c r="B205" s="12" t="s">
+      <c r="D205" s="45"/>
+      <c r="E205" s="46"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="67"/>
+      <c r="B206" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C206" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D205" s="49"/>
-      <c r="E205" s="50"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="47"/>
-      <c r="B206" s="12" t="s">
+      <c r="D206" s="45"/>
+      <c r="E206" s="46"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="67"/>
+      <c r="B207" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C207" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D207" s="45"/>
+      <c r="E207" s="46"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="67"/>
+      <c r="B208" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D206" s="49"/>
-      <c r="E206" s="50"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="47"/>
-      <c r="B207" s="12" t="s">
+      <c r="C208" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C207" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D207" s="49"/>
-      <c r="E207" s="50"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="47"/>
-      <c r="B208" s="13" t="s">
+      <c r="D208" s="45"/>
+      <c r="E208" s="46"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="67"/>
+      <c r="B209" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D208" s="49"/>
-      <c r="E208" s="50"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="47"/>
-      <c r="B209" s="12" t="s">
+      <c r="D209" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="E209" s="46"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="67"/>
+      <c r="B210" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C210" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D209" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="E209" s="50"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="47"/>
-      <c r="B210" s="12" t="s">
+      <c r="D210" s="45"/>
+      <c r="E210" s="46"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="67"/>
+      <c r="B211" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C211" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D210" s="49"/>
-      <c r="E210" s="50"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="47"/>
-      <c r="B211" s="12" t="s">
+      <c r="D211" s="45"/>
+      <c r="E211" s="46"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="67"/>
+      <c r="B212" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C212" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D211" s="49"/>
-      <c r="E211" s="50"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="47"/>
-      <c r="B212" s="12" t="s">
+      <c r="D212" s="45"/>
+      <c r="E212" s="46"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="67"/>
+      <c r="B213" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C213" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D212" s="49"/>
-      <c r="E212" s="50"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="47"/>
-      <c r="B213" s="12" t="s">
+      <c r="D213" s="45"/>
+      <c r="E213" s="46"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="67"/>
+      <c r="B214" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C214" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D213" s="49"/>
-      <c r="E213" s="50"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="47"/>
-      <c r="B214" s="13" t="s">
+      <c r="D214" s="45"/>
+      <c r="E214" s="46"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="67"/>
+      <c r="B215" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C215" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D214" s="49"/>
-      <c r="E214" s="50"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="47"/>
-      <c r="B215" s="12" t="s">
+      <c r="D215" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="E215" s="46"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="67"/>
+      <c r="B216" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C216" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D215" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="E215" s="50"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="47"/>
-      <c r="B216" s="12" t="s">
+      <c r="D216" s="45"/>
+      <c r="E216" s="46"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="67"/>
+      <c r="B217" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C217" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D216" s="49"/>
-      <c r="E216" s="50"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="47"/>
-      <c r="B217" s="12" t="s">
+      <c r="D217" s="45"/>
+      <c r="E217" s="46"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="67"/>
+      <c r="B218" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C218" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D217" s="49"/>
-      <c r="E217" s="50"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="47"/>
-      <c r="B218" s="12" t="s">
+      <c r="D218" s="45"/>
+      <c r="E218" s="46"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="67"/>
+      <c r="B219" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C219" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D218" s="49"/>
-      <c r="E218" s="50"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="47"/>
-      <c r="B219" s="12" t="s">
+      <c r="D219" s="45"/>
+      <c r="E219" s="46"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="67"/>
+      <c r="B220" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C220" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D219" s="49"/>
-      <c r="E219" s="50"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="47"/>
-      <c r="B220" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D220" s="49"/>
-      <c r="E220" s="50"/>
+      <c r="D220" s="45"/>
+      <c r="E220" s="46"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="47"/>
+      <c r="A221" s="67"/>
       <c r="B221" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D221" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="E221" s="46"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="67"/>
+      <c r="B222" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D222" s="45"/>
+      <c r="E222" s="46"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="67"/>
+      <c r="B223" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C223" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="D223" s="45"/>
+      <c r="E223" s="46"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="67"/>
+      <c r="B224" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D221" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="E221" s="50"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="47"/>
-      <c r="B222" s="12" t="s">
+      <c r="C224" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="D224" s="45"/>
+      <c r="E224" s="46"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="67"/>
+      <c r="B225" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D222" s="49"/>
-      <c r="E222" s="50"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="47"/>
-      <c r="B223" s="12" t="s">
+      <c r="C225" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="D225" s="45"/>
+      <c r="E225" s="46"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="68"/>
+      <c r="B226" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D223" s="49"/>
-      <c r="E223" s="50"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="47"/>
-      <c r="B224" s="12" t="s">
+      <c r="C226" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C224" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D224" s="49"/>
-      <c r="E224" s="50"/>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="47"/>
-      <c r="B225" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D225" s="49"/>
-      <c r="E225" s="50"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="48"/>
-      <c r="B226" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D226" s="49"/>
-      <c r="E226" s="50"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="46"/>
     </row>
     <row r="227" spans="1:5" s="7" customFormat="1" ht="17" thickBot="1">
       <c r="A227" s="2"/>
@@ -7192,150 +7199,150 @@
       <c r="E227" s="41"/>
     </row>
     <row r="228" spans="1:5" ht="17" thickTop="1">
-      <c r="A228" s="46" t="s">
-        <v>287</v>
+      <c r="A228" s="53" t="s">
+        <v>285</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D228" s="49" t="s">
-        <v>383</v>
-      </c>
-      <c r="E228" s="50" t="s">
+      <c r="D228" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E228" s="46" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="47"/>
+      <c r="A229" s="58"/>
       <c r="B229" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D229" s="45"/>
+      <c r="E229" s="46"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="58"/>
+      <c r="B230" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D229" s="49"/>
-      <c r="E229" s="50"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="47"/>
-      <c r="B230" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D230" s="49"/>
-      <c r="E230" s="50"/>
+      <c r="D230" s="45"/>
+      <c r="E230" s="46"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="47"/>
+      <c r="A231" s="58"/>
       <c r="B231" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D231" s="45"/>
+      <c r="E231" s="46"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="58"/>
+      <c r="B232" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D231" s="49"/>
-      <c r="E231" s="50"/>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="47"/>
-      <c r="B232" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="49" t="s">
-        <v>384</v>
-      </c>
-      <c r="E232" s="50"/>
+      <c r="D232" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="E232" s="46"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="47"/>
+      <c r="A233" s="58"/>
       <c r="B233" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D233" s="45"/>
+      <c r="E233" s="46"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="58"/>
+      <c r="B234" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D233" s="49"/>
-      <c r="E233" s="50"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="47"/>
-      <c r="B234" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D234" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="E234" s="50"/>
+      <c r="D234" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="E234" s="46"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="47"/>
+      <c r="A235" s="58"/>
       <c r="B235" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D235" s="45"/>
+      <c r="E235" s="46"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="58"/>
+      <c r="B236" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D235" s="49"/>
-      <c r="E235" s="50"/>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="47"/>
-      <c r="B236" s="12" t="s">
+      <c r="D236" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="E236" s="46"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="58"/>
+      <c r="B237" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C237" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D236" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="E236" s="50"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="47"/>
-      <c r="B237" s="13" t="s">
+      <c r="D237" s="45"/>
+      <c r="E237" s="46"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="58"/>
+      <c r="B238" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C238" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D237" s="49"/>
-      <c r="E237" s="50"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="47"/>
-      <c r="B238" s="12" t="s">
+      <c r="D238" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="E238" s="46"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="59"/>
+      <c r="B239" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C239" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D238" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="E238" s="50"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="48"/>
-      <c r="B239" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D239" s="49"/>
-      <c r="E239" s="50"/>
+      <c r="D239" s="45"/>
+      <c r="E239" s="46"/>
     </row>
     <row r="240" spans="1:5" s="7" customFormat="1">
       <c r="A240" s="4"/>
@@ -7345,211 +7352,214 @@
       <c r="E240" s="42"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="46" t="s">
-        <v>342</v>
+      <c r="A241" s="66" t="s">
+        <v>337</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D241" s="49" t="s">
-        <v>792</v>
-      </c>
-      <c r="E241" s="50" t="s">
+      <c r="D241" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="E241" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="47"/>
+      <c r="A242" s="67"/>
       <c r="B242" s="12" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D242" s="49"/>
-      <c r="E242" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D242" s="45"/>
+      <c r="E242" s="46"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="47"/>
+      <c r="A243" s="67"/>
       <c r="B243" s="13" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D243" s="49"/>
-      <c r="E243" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="D243" s="45"/>
+      <c r="E243" s="46"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="47"/>
+      <c r="A244" s="67"/>
       <c r="B244" s="12" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D244" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E244" s="50"/>
+      <c r="D244" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E244" s="46"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="47"/>
+      <c r="A245" s="67"/>
       <c r="B245" s="12" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D245" s="49"/>
-      <c r="E245" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D245" s="45"/>
+      <c r="E245" s="46"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="47"/>
+      <c r="A246" s="67"/>
       <c r="B246" s="13" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D246" s="49"/>
-      <c r="E246" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="D246" s="45"/>
+      <c r="E246" s="46"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="47"/>
+      <c r="A247" s="67"/>
       <c r="B247" s="12" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C247" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D247" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="E247" s="50"/>
+      <c r="D247" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="E247" s="46"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="47"/>
+      <c r="A248" s="67"/>
       <c r="B248" s="12" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D248" s="49"/>
-      <c r="E248" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D248" s="45"/>
+      <c r="E248" s="46"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="47"/>
+      <c r="A249" s="67"/>
       <c r="B249" s="13" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D249" s="49"/>
-      <c r="E249" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="D249" s="45"/>
+      <c r="E249" s="46"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="47"/>
+      <c r="A250" s="67"/>
       <c r="B250" s="12" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C250" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D250" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="E250" s="50"/>
+      <c r="D250" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E250" s="46"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="47"/>
+      <c r="A251" s="67"/>
       <c r="B251" s="12" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D251" s="49"/>
-      <c r="E251" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D251" s="45"/>
+      <c r="E251" s="46"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="47"/>
+      <c r="A252" s="67"/>
       <c r="B252" s="13" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D252" s="49"/>
-      <c r="E252" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="D252" s="45"/>
+      <c r="E252" s="46"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="47"/>
+      <c r="A253" s="67"/>
       <c r="B253" s="12" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C253" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D253" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="E253" s="50"/>
+      <c r="D253" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="E253" s="46"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="47"/>
+      <c r="A254" s="67"/>
       <c r="B254" s="12" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D254" s="49"/>
-      <c r="E254" s="50"/>
+        <v>346</v>
+      </c>
+      <c r="D254" s="45"/>
+      <c r="E254" s="46"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="48"/>
+      <c r="A255" s="68"/>
       <c r="B255" s="13" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D255" s="49"/>
-      <c r="E255" s="50"/>
+        <v>387</v>
+      </c>
+      <c r="D255" s="45"/>
+      <c r="E255" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="E228:E239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="D241:D243"/>
-    <mergeCell ref="D244:D246"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D113:D116"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A27:A75"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="A228:A239"/>
+    <mergeCell ref="D154:D158"/>
+    <mergeCell ref="A204:A226"/>
+    <mergeCell ref="E204:E226"/>
+    <mergeCell ref="D204:D208"/>
+    <mergeCell ref="D209:D214"/>
+    <mergeCell ref="D215:D220"/>
+    <mergeCell ref="D221:D226"/>
+    <mergeCell ref="D228:D231"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E27:E75"/>
+    <mergeCell ref="A160:A190"/>
+    <mergeCell ref="E160:E190"/>
+    <mergeCell ref="E122:E158"/>
+    <mergeCell ref="A192:A202"/>
+    <mergeCell ref="E192:E202"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D196:D199"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="D77:D80"/>
     <mergeCell ref="E14:E25"/>
     <mergeCell ref="A241:A255"/>
     <mergeCell ref="E241:E255"/>
@@ -7566,34 +7576,31 @@
     <mergeCell ref="A77:A120"/>
     <mergeCell ref="E77:E120"/>
     <mergeCell ref="A122:A158"/>
-    <mergeCell ref="E27:E75"/>
-    <mergeCell ref="A160:A190"/>
-    <mergeCell ref="E160:E190"/>
-    <mergeCell ref="E122:E158"/>
-    <mergeCell ref="A192:A202"/>
-    <mergeCell ref="E192:E202"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="D149:D153"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="D196:D199"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="A228:A239"/>
-    <mergeCell ref="D154:D158"/>
-    <mergeCell ref="A204:A226"/>
-    <mergeCell ref="E204:E226"/>
-    <mergeCell ref="D204:D208"/>
-    <mergeCell ref="D209:D214"/>
-    <mergeCell ref="D215:D220"/>
-    <mergeCell ref="D221:D226"/>
-    <mergeCell ref="D228:D231"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A27:A75"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="D253:D255"/>
+    <mergeCell ref="E228:E239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="D241:D243"/>
+    <mergeCell ref="D244:D246"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C162">
@@ -7629,183 +7636,183 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="33" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="68" t="s">
-        <v>436</v>
+      <c r="A2" s="63" t="s">
+        <v>430</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="30" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85">
-      <c r="A5" s="68"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="30" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="30" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="68"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="30" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="102">
-      <c r="A8" s="68"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="30" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="68"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="102">
+      <c r="A10" s="63"/>
+      <c r="B10" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="102">
-      <c r="A10" s="68"/>
-      <c r="B10" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>415</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="68"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="68"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="30" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
-      <c r="A13" s="68"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="30" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="68"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="30" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="102">
-      <c r="A15" s="68"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="30" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7837,697 +7844,697 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" customHeight="1">
+      <c r="A3" s="63"/>
+      <c r="B3" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1">
+      <c r="A4" s="63"/>
+      <c r="B4" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="63"/>
+      <c r="B5" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="63"/>
+      <c r="B7" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="64"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="63"/>
+      <c r="B9" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="63"/>
+      <c r="B11" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="63"/>
+      <c r="B13" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="63"/>
+      <c r="B14" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="63"/>
+      <c r="B15" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="63"/>
+      <c r="B16" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="63" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="63"/>
+      <c r="B18" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="D19" s="64"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="63"/>
+      <c r="B20" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="63"/>
+      <c r="B21" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="64"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="63"/>
+      <c r="B23" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" s="64"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="63"/>
+      <c r="B25" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25" s="65"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="63"/>
+      <c r="B26" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="D26" s="65"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="63"/>
+      <c r="B27" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="D27" s="65"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="63"/>
+      <c r="B28" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="D28" s="65"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="63"/>
+      <c r="B29" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="D29" s="65"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="63"/>
+      <c r="B30" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="63"/>
+      <c r="B31" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="65"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="63"/>
+      <c r="B32" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="65"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="63"/>
+      <c r="B33" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D33" s="65"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="63"/>
+      <c r="B34" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" s="65"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="63"/>
+      <c r="B35" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" s="65"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="63"/>
+      <c r="B36" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D36" s="65"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="63"/>
+      <c r="B37" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="D37" s="65"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="63"/>
+      <c r="B38" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D38" s="65"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="63"/>
+      <c r="B39" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D39" s="65"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="63"/>
+      <c r="B40" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="65"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="63"/>
+      <c r="B41" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="D41" s="65"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="63"/>
+      <c r="B42" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" s="65"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="63"/>
+      <c r="B43" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="D43" s="65"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="63"/>
+      <c r="B44" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44" s="65"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="63"/>
+      <c r="B45" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="65"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="63"/>
+      <c r="B46" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="D46" s="65"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="63"/>
+      <c r="B47" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D47" s="65"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="63"/>
+      <c r="B49" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D49" s="65"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="63"/>
+      <c r="B50" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" s="65"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="63"/>
+      <c r="B51" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="D51" s="65"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="63"/>
+      <c r="B52" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" s="65"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="63"/>
+      <c r="B53" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="65"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="63"/>
+      <c r="B54" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" s="65"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="63"/>
+      <c r="B55" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="D55" s="65"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="63"/>
+      <c r="B56" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D56" s="65"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="63"/>
+      <c r="B57" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="65"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="63"/>
+      <c r="B58" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D58" s="65"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="63"/>
+      <c r="B60" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="65"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="63"/>
+      <c r="B61" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D61" s="65"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="63"/>
+      <c r="B62" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="65"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="63"/>
+      <c r="B63" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="D63" s="65"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="63"/>
+      <c r="B64" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="65"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="63"/>
+      <c r="B65" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C65" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D65" s="65"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="63"/>
+      <c r="B66" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C66" s="30" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D3" s="69"/>
-    </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="68"/>
-      <c r="B6" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="69"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" s="69"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="68" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D10" s="69"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D11" s="69"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="D12" s="69"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="D13" s="69"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="D15" s="69"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>548</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D17" s="69"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="D18" s="69"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="D19" s="69"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="68"/>
-      <c r="B20" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="D20" s="69"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="D21" s="69"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="68"/>
-      <c r="B22" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="68"/>
-      <c r="B23" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="68" t="s">
-        <v>533</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="D25" s="70"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="68"/>
-      <c r="B26" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="D26" s="70"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="68"/>
-      <c r="B27" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="D27" s="70"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="68"/>
-      <c r="B28" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="D28" s="70"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="68"/>
-      <c r="B29" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="D29" s="70"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="68"/>
-      <c r="B30" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="D30" s="70"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="68"/>
-      <c r="B31" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="D31" s="70"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="68"/>
-      <c r="B32" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="D32" s="70"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="68"/>
-      <c r="B33" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="70"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="68"/>
-      <c r="B34" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="D34" s="70"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="68"/>
-      <c r="B35" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" s="70"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="68"/>
-      <c r="B36" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="D36" s="70"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="68"/>
-      <c r="B37" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D37" s="70"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="68"/>
-      <c r="B38" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="D38" s="70"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="68"/>
-      <c r="B39" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="D39" s="70"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="68"/>
-      <c r="B40" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="D40" s="70"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="68"/>
-      <c r="B41" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D41" s="70"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="68"/>
-      <c r="B42" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="D42" s="70"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="68"/>
-      <c r="B43" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="70"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="68"/>
-      <c r="B44" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="D44" s="70"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="68"/>
-      <c r="B45" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D45" s="70"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="68"/>
-      <c r="B46" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="D46" s="70"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="68"/>
-      <c r="B47" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="D47" s="70"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="D48" s="69" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="68"/>
-      <c r="B49" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="68"/>
-      <c r="B50" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="D50" s="70"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="68"/>
-      <c r="B51" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D51" s="70"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="68"/>
-      <c r="B52" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="D52" s="70"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="68"/>
-      <c r="B53" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="D53" s="70"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="68"/>
-      <c r="B54" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="D54" s="70"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="68"/>
-      <c r="B55" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="D55" s="70"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="68"/>
-      <c r="B56" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="D56" s="70"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="68"/>
-      <c r="B57" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="D57" s="70"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="68"/>
-      <c r="B58" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="D58" s="70"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="68" t="s">
-        <v>460</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="68"/>
-      <c r="B60" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="D60" s="70"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="68"/>
-      <c r="B61" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D61" s="70"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="68"/>
-      <c r="B62" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="D62" s="70"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="68"/>
-      <c r="B63" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="D63" s="70"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="68"/>
-      <c r="B64" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="D64" s="70"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="68"/>
-      <c r="B65" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="D65" s="70"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="68"/>
-      <c r="B66" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D66" s="70"/>
+      <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="68"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="D67" s="70"/>
+        <v>435</v>
+      </c>
+      <c r="D67" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8566,566 +8573,566 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="33" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>696</v>
+      <c r="A2" s="63" t="s">
+        <v>690</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="D2" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="63"/>
+      <c r="B5" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="63"/>
+      <c r="B7" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="D7" s="64"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="63"/>
+      <c r="B8" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="63"/>
+      <c r="B9" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="63"/>
+      <c r="B10" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="63"/>
+      <c r="B11" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="63"/>
+      <c r="B12" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="63"/>
+      <c r="B13" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="63"/>
+      <c r="B14" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="63"/>
+      <c r="B15" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="63"/>
+      <c r="B16" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="63"/>
+      <c r="B17" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="63"/>
+      <c r="B19" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="63"/>
+      <c r="B20" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D20" s="65"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="63"/>
+      <c r="B21" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="D21" s="65"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="63"/>
+      <c r="B22" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="D22" s="65"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="63"/>
+      <c r="B23" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="63"/>
+      <c r="B24" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="D3" s="69"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="68"/>
-      <c r="B4" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="68"/>
-      <c r="B5" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="68"/>
-      <c r="B6" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="D6" s="69"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="D7" s="69"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="68"/>
-      <c r="B10" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="D10" s="69"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="D11" s="69"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="D12" s="69"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="D13" s="69"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" s="69"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="68"/>
-      <c r="B16" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="D17" s="69"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="68" t="s">
-        <v>663</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="68"/>
-      <c r="B19" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="D19" s="70"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="68"/>
-      <c r="B20" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="D20" s="70"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="68"/>
-      <c r="B21" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="D21" s="70"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="68"/>
-      <c r="B22" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="D22" s="70"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="68"/>
-      <c r="B23" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="D23" s="70"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="68"/>
-      <c r="B24" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="68"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="30" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="D25" s="70"/>
+        <v>640</v>
+      </c>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="68" t="s">
-        <v>645</v>
+      <c r="A26" s="63" t="s">
+        <v>639</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>642</v>
+        <v>637</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="68"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="30" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="D27" s="70"/>
+        <v>634</v>
+      </c>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="68"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="34" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="D28" s="70"/>
+        <v>632</v>
+      </c>
+      <c r="D28" s="65"/>
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="68"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="34" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="D29" s="70"/>
+        <v>630</v>
+      </c>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="68"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="34" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D30" s="70"/>
+        <v>628</v>
+      </c>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="68"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="34" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D31" s="70"/>
+        <v>626</v>
+      </c>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="68"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="30" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="D32" s="70"/>
+        <v>624</v>
+      </c>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="68"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="30" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="D33" s="70"/>
+        <v>622</v>
+      </c>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="68"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="30" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="D34" s="70"/>
+        <v>620</v>
+      </c>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="68"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="30" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="D35" s="70"/>
+        <v>618</v>
+      </c>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="68"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="30" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>622</v>
-      </c>
-      <c r="D36" s="70"/>
+        <v>616</v>
+      </c>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="68"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="30" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="D37" s="70"/>
+        <v>614</v>
+      </c>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="68"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="30" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>618</v>
-      </c>
-      <c r="D38" s="70"/>
+        <v>612</v>
+      </c>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="68"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="30" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D39" s="70"/>
+        <v>610</v>
+      </c>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="68" t="s">
-        <v>615</v>
+      <c r="A40" s="63" t="s">
+        <v>609</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>613</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>612</v>
+        <v>607</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="68"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="30" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>610</v>
-      </c>
-      <c r="D41" s="69"/>
+        <v>604</v>
+      </c>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="68"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="30" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="D42" s="69"/>
+        <v>602</v>
+      </c>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="68"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="30" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="D43" s="69"/>
+        <v>600</v>
+      </c>
+      <c r="D43" s="64"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="68"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="30" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="D44" s="69"/>
+        <v>598</v>
+      </c>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="68"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="30" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D45" s="69"/>
+        <v>596</v>
+      </c>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:4" ht="17">
-      <c r="A46" s="68" t="s">
-        <v>601</v>
+      <c r="A46" s="63" t="s">
+        <v>595</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="D46" s="69" t="s">
-        <v>598</v>
+        <v>593</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17">
-      <c r="A47" s="68"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="30" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="D47" s="69"/>
+        <v>590</v>
+      </c>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="68"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="30" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="D48" s="69"/>
+        <v>588</v>
+      </c>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="68"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="30" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="D49" s="69"/>
+        <v>586</v>
+      </c>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="68"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="30" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="D50" s="69"/>
+        <v>584</v>
+      </c>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="68"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="30" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D51" s="69"/>
+        <v>582</v>
+      </c>
+      <c r="D51" s="64"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="68"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="30" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="D52" s="69"/>
+        <v>580</v>
+      </c>
+      <c r="D52" s="64"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="68"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="30" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="D53" s="69"/>
+        <v>578</v>
+      </c>
+      <c r="D53" s="64"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1">
-      <c r="A54" s="68"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="30" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D54" s="69"/>
+        <v>576</v>
+      </c>
+      <c r="D54" s="64"/>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="31"/>
@@ -9175,458 +9182,458 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="33" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="68" t="s">
-        <v>787</v>
+      <c r="A2" s="63" t="s">
+        <v>781</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>642</v>
+        <v>779</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="68"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="30" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="D3" s="70"/>
+        <v>777</v>
+      </c>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="68"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="30" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="D4" s="70"/>
+        <v>775</v>
+      </c>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="68"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="30" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="D5" s="70"/>
+        <v>773</v>
+      </c>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="68"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="30" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="D6" s="70"/>
+        <v>771</v>
+      </c>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="68"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="30" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="D7" s="70"/>
+        <v>769</v>
+      </c>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="68"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="30" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="D8" s="70"/>
+        <v>767</v>
+      </c>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="68"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="30" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="D9" s="70"/>
+        <v>765</v>
+      </c>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="68"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="30" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="D10" s="70"/>
+        <v>763</v>
+      </c>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="68"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="30" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="D11" s="70"/>
+        <v>761</v>
+      </c>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="68"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="30" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="D12" s="70"/>
+        <v>759</v>
+      </c>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="68"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="30" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>763</v>
-      </c>
-      <c r="D13" s="70"/>
+        <v>757</v>
+      </c>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="68"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="30" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="D14" s="70"/>
+        <v>755</v>
+      </c>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="68"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="30" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="D15" s="70"/>
+        <v>753</v>
+      </c>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="68"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="30" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>757</v>
-      </c>
-      <c r="D16" s="70"/>
+        <v>751</v>
+      </c>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="68"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="30" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="D17" s="70"/>
+        <v>749</v>
+      </c>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="68"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="30" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="D18" s="70"/>
+        <v>747</v>
+      </c>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="68" t="s">
-        <v>752</v>
+      <c r="A19" s="63" t="s">
+        <v>746</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>642</v>
+        <v>744</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="68"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="30" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="D20" s="70"/>
+        <v>742</v>
+      </c>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="68"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="30" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="D21" s="70"/>
+        <v>740</v>
+      </c>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="68"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="30" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="D22" s="70"/>
+        <v>738</v>
+      </c>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="68"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="30" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="D23" s="70"/>
+        <v>736</v>
+      </c>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="68"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="30" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="D24" s="70"/>
+        <v>734</v>
+      </c>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="68"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="30" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="D25" s="70"/>
+        <v>732</v>
+      </c>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="68"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="30" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="D26" s="70"/>
+        <v>730</v>
+      </c>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="68"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="30" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="D27" s="70"/>
+        <v>728</v>
+      </c>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="68"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="30" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>732</v>
-      </c>
-      <c r="D28" s="70"/>
+        <v>726</v>
+      </c>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="68"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="30" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>730</v>
-      </c>
-      <c r="D29" s="70"/>
+        <v>724</v>
+      </c>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="68"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="30" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="D30" s="70"/>
+        <v>722</v>
+      </c>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="68"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="30" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="D31" s="70"/>
+        <v>720</v>
+      </c>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="68"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="30" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="D32" s="70"/>
+        <v>718</v>
+      </c>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="68"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="D33" s="70"/>
+        <v>716</v>
+      </c>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="68"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="30" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="D34" s="70"/>
+        <v>714</v>
+      </c>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="68"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="30" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="D35" s="70"/>
+        <v>712</v>
+      </c>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="68"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="30" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="D36" s="70"/>
+        <v>710</v>
+      </c>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="68"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="30" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="D37" s="70"/>
+        <v>708</v>
+      </c>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4" ht="17">
-      <c r="A38" s="68" t="s">
-        <v>713</v>
+      <c r="A38" s="63" t="s">
+        <v>707</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>711</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>710</v>
+        <v>705</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22" customHeight="1">
-      <c r="A39" s="68"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="30" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="69"/>
+        <v>702</v>
+      </c>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="1:4" ht="34" customHeight="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="30" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="D40" s="69"/>
+        <v>700</v>
+      </c>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="30" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>704</v>
-      </c>
-      <c r="D41" s="69"/>
+        <v>698</v>
+      </c>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4" ht="43" customHeight="1">
-      <c r="A42" s="68"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="30" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="D42" s="69"/>
+        <v>696</v>
+      </c>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="68" t="s">
-        <v>701</v>
+      <c r="A43" s="63" t="s">
+        <v>695</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="68"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="30" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
